--- a/data/supplementary adverbs.xlsx
+++ b/data/supplementary adverbs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28780" windowHeight="12760" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <t>DS</t>
   </si>
   <si>
-    <t>汉语</t>
+    <t>汉语 (Chinese)</t>
   </si>
   <si>
     <t>还</t>
@@ -105,7 +105,7 @@
     <t>再</t>
   </si>
   <si>
-    <t>藏语</t>
+    <t>藏语 (Tibetan)</t>
   </si>
   <si>
     <t>ra</t>
@@ -114,7 +114,7 @@
     <t>taroŋ</t>
   </si>
   <si>
-    <t>英语</t>
+    <t>英语 (English)</t>
   </si>
   <si>
     <t>also</t>
@@ -135,7 +135,7 @@
     <t>then</t>
   </si>
   <si>
-    <t>德语</t>
+    <t>德语 (German)</t>
   </si>
   <si>
     <t>auch</t>
@@ -147,7 +147,7 @@
     <t>wieder</t>
   </si>
   <si>
-    <t>法语</t>
+    <t>法语 (French)</t>
   </si>
   <si>
     <t>aussi</t>
@@ -156,7 +156,7 @@
     <t>encore</t>
   </si>
   <si>
-    <t>俄语</t>
+    <t>俄语 (Russian)</t>
   </si>
   <si>
     <t>тбже</t>
@@ -165,7 +165,7 @@
     <t>опять</t>
   </si>
   <si>
-    <t>捷克语（印欧语系-斯拉夫语族-西斯拉夫语支）</t>
+    <t>捷克语 (Czech)</t>
   </si>
   <si>
     <t>také</t>
@@ -174,7 +174,7 @@
     <t>jes te</t>
   </si>
   <si>
-    <t>克罗地亚语</t>
+    <t>克罗地亚语 (Croatian)</t>
   </si>
   <si>
     <t>ni</t>
@@ -186,7 +186,7 @@
     <t>jos</t>
   </si>
   <si>
-    <t>日语</t>
+    <t>日语 (Japanese)</t>
   </si>
   <si>
     <t>も</t>
@@ -198,7 +198,7 @@
     <t>なお</t>
   </si>
   <si>
-    <t>韩国语</t>
+    <t>韩国语 (Korean)</t>
   </si>
   <si>
     <t>도</t>
@@ -216,7 +216,7 @@
     <t>아직</t>
   </si>
   <si>
-    <t>越南语</t>
+    <t>越南语 (Vietnamese)</t>
   </si>
   <si>
     <t>cũng</t>
@@ -294,13 +294,13 @@
     <t>nahan</t>
   </si>
   <si>
-    <t>西班牙语</t>
+    <t>西班牙语 (Spanish)</t>
   </si>
   <si>
     <t>tambiém</t>
   </si>
   <si>
-    <t>意大利语</t>
+    <t>意大利语 (Italian)</t>
   </si>
   <si>
     <t>anche</t>
@@ -309,7 +309,7 @@
     <t>ancóra</t>
   </si>
   <si>
-    <t>罗马尼亚语</t>
+    <t>罗马尼亚语 (Romanian)</t>
   </si>
   <si>
     <t>s̹i</t>
@@ -321,7 +321,7 @@
     <t>înca</t>
   </si>
   <si>
-    <t>景颇族 波拉语</t>
+    <t>景颇族 波拉语 (Bola / Pala — Jingpo)</t>
   </si>
   <si>
     <t>ʒɛ31</t>
@@ -333,7 +333,7 @@
     <t>a31ʃɿ55</t>
   </si>
   <si>
-    <t>壮语</t>
+    <t>壮语 (Zhuang)</t>
   </si>
   <si>
     <t>cix</t>
@@ -342,7 +342,7 @@
     <t>lij</t>
   </si>
   <si>
-    <t>纳西语</t>
+    <t>纳西语 (Naxi)</t>
   </si>
   <si>
     <t>la33</t>
@@ -351,7 +351,7 @@
     <t>le33</t>
   </si>
   <si>
-    <t>布芒语（汉藏语系-壮侗语族-壮傣语支）郭5</t>
+    <t>布芒语 (Buman / Bouman)</t>
   </si>
   <si>
     <t>kǎu51</t>
@@ -360,7 +360,7 @@
     <t>lɛ51</t>
   </si>
   <si>
-    <t>柔若语(怒族) 郭5</t>
+    <t>柔若语 (Nu-Rouruo)</t>
   </si>
   <si>
     <t>iɛ33</t>
@@ -369,7 +369,7 @@
     <t>ʦE55</t>
   </si>
   <si>
-    <t>仙仁 土家语 郭5</t>
+    <t>仙仁 土家语 (Xianren Tujia)</t>
   </si>
   <si>
     <t>ʑɛ</t>
@@ -381,7 +381,7 @@
     <t>ɣa</t>
   </si>
   <si>
-    <t>炯奈语(汉藏语系-苗瑶语族)</t>
+    <t>炯奈语 (Jiong-Nai)</t>
   </si>
   <si>
     <t>t44</t>
@@ -393,7 +393,7 @@
     <t>Daŋ44</t>
   </si>
   <si>
-    <t>优诺语(汉藏语系-苗瑶语族-苗语支)</t>
+    <t>优诺语 (Yuno)</t>
   </si>
   <si>
     <t>ʑa31</t>
@@ -405,7 +405,7 @@
     <t>ʑou31</t>
   </si>
   <si>
-    <t>佤语</t>
+    <t>佤语 (Wa)</t>
   </si>
   <si>
     <t>ˀah</t>
@@ -414,7 +414,7 @@
     <t>bauˀ</t>
   </si>
   <si>
-    <t>哈萨克语</t>
+    <t>哈萨克语 (Kazakh)</t>
   </si>
   <si>
     <t>ʤæne</t>
@@ -423,7 +423,7 @@
     <t>da(de)</t>
   </si>
   <si>
-    <t>鄂伦春语</t>
+    <t>鄂伦春语 (Oroqen)</t>
   </si>
   <si>
     <t>naan</t>
@@ -435,7 +435,7 @@
     <t>dakɪ</t>
   </si>
   <si>
-    <t>锡伯语</t>
+    <t>锡伯语 (Xibe / Sibe)</t>
   </si>
 </sst>
 </file>
@@ -1144,13 +1144,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1438,11 +1431,14 @@
   <sheetPr/>
   <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="1" max="1" width="41.3461538461538" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="4" t="s">
@@ -6601,7 +6597,7 @@
   <sheetPr/>
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
